--- a/biology/Histoire de la zoologie et de la botanique/Edward_Pierson_Ramsay/Edward_Pierson_Ramsay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Pierson_Ramsay/Edward_Pierson_Ramsay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Pierson Ramsay est un ornithologue australien, né le 3 décembre 1842 à Dobroyd Estate, Long Cove, près de Sydney et mort le 16 décembre 1916 à Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine de 1863 à 1865 à l’université de Sydney. Il devient le premier conservateur d’origine australienne du Muséum d’Australie. Il publie, de 1876 à 1894 le Catalogue of the Australian Birds in the Australian Museum at Sydney en quatre parties.
 En 1883, il assiste à Londres à une exposition internationale sur la pêche. Il y rencontre le chirurgien militaire Francis Day (1829-1889) qui a constitué une immense collection de poissons récoltés en Inde, Birmanie, Malaisie et dans d’autres lieux d’Asie. Ramsay réussit à en acheter une partie dont 150 types.
